--- a/Artist map/Brett/Urenregistratie Vertical Slice.xlsx
+++ b/Artist map/Brett/Urenregistratie Vertical Slice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brett\Desktop\Vertical slice 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C9BFFED-59B9-4E7B-AAB9-1C67E215C72B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3121DC-00C6-4273-9335-CF10DEADE11C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="34">
   <si>
     <t xml:space="preserve">Week 1 </t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>Models maken</t>
+  </si>
+  <si>
+    <t>texture werk</t>
+  </si>
+  <si>
+    <t>models maken</t>
+  </si>
+  <si>
+    <t>daily stand up</t>
   </si>
 </sst>
 </file>
@@ -549,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -959,7 +968,6 @@
     <row r="27" spans="2:11">
       <c r="B27" s="9"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -971,9 +979,13 @@
     <row r="28" spans="2:11">
       <c r="B28" s="10"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1">
+        <v>0.25</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -982,10 +994,15 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -995,8 +1012,12 @@
     <row r="30" spans="2:11">
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1036,11 +1057,11 @@
       </c>
       <c r="E33" s="1">
         <f t="shared" ref="E33:K33" si="2">SUM(E27:E32)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="2"/>
@@ -1071,7 +1092,7 @@
       </c>
       <c r="E34" s="5">
         <f>SUM(E33:K33)</f>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -1866,7 +1887,7 @@
       </c>
       <c r="E85" s="1">
         <f>E14+E24+E34+E44+E54+E64+E74+E84</f>
-        <v>22</v>
+        <v>26.25</v>
       </c>
     </row>
   </sheetData>
